--- a/currency exchange rate.xlsx
+++ b/currency exchange rate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\margarita.bredinina\projects\My project\Dict\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\margarita.bredinina\projects\My project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
-    <t>Доллар США</t>
-  </si>
-  <si>
     <t>Австралийский доллар</t>
   </si>
   <si>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t>Курс</t>
+  </si>
+  <si>
+    <t>Доллар</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,13 +545,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -562,7 +562,7 @@
         <v>69.470600000000005</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -573,7 +573,7 @@
         <v>48.935099999999998</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -584,7 +584,7 @@
         <v>40.949399999999997</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -595,7 +595,7 @@
         <v>0.143238</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -606,7 +606,7 @@
         <v>32.0732</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -617,7 +617,7 @@
         <v>40.645099999999999</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
         <v>17.898800000000001</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -639,7 +639,7 @@
         <v>0.24728800000000001</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -650,7 +650,7 @@
         <v>6.2191099999999999E-2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -661,7 +661,7 @@
         <v>8.8719099999999997</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -672,7 +672,7 @@
         <v>10.645899999999999</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -683,7 +683,7 @@
         <v>79.460499999999996</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
         <v>0.99339500000000003</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -705,7 +705,7 @@
         <v>0.18056999999999998</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -716,7 +716,7 @@
         <v>50.961399999999998</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -727,7 +727,7 @@
         <v>0.99456800000000001</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -738,7 +738,7 @@
         <v>10.0997</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -749,7 +749,7 @@
         <v>4.09084</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -760,7 +760,7 @@
         <v>19.877099999999999</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -771,7 +771,7 @@
         <v>7.9739400000000007</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -782,7 +782,7 @@
         <v>18.482600000000001</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -793,7 +793,7 @@
         <v>17.0501</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -804,7 +804,7 @@
         <v>96.619</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -815,7 +815,7 @@
         <v>50.838299999999997</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -826,7 +826,7 @@
         <v>7.365730000000001</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -837,7 +837,7 @@
         <v>13.176</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -848,7 +848,7 @@
         <v>8.3327799999999997E-3</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -859,7 +859,7 @@
         <v>2.5070600000000001</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -870,7 +870,7 @@
         <v>88.283199999999994</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -881,7 +881,7 @@
         <v>3.0883400000000001</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -892,7 +892,7 @@
         <v>7.7488299999999999</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -903,7 +903,7 @@
         <v>70.578699999999998</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -914,7 +914,7 @@
         <v>4.8143799999999999</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
         <v>0.62997599999999998</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -936,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
